--- a/projects/2/temp/sample_example_new.xlsx
+++ b/projects/2/temp/sample_example_new.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\projects\2\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413C2D2B-5723-47A5-A27D-929C2F13CEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B35782-171D-479D-A9BB-2E0DF244AB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="6120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30735" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -383,7 +391,7 @@
   <dimension ref="A1:F1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
